--- a/Bug/T6_Mobile.xlsx
+++ b/Bug/T6_Mobile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Talent\Docs\Bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1BA870-CCB2-4CC6-8963-654009A37AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2421A01-44B9-43B6-8C4B-60AEEF197AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A52E3FAD-4BAF-45D0-98E7-77054665A105}"/>
   </bookViews>
@@ -24,6 +24,8 @@
     <sheet name="Bug9" sheetId="9" r:id="rId9"/>
     <sheet name="Bug10" sheetId="10" r:id="rId10"/>
     <sheet name="Bug12" sheetId="11" r:id="rId11"/>
+    <sheet name="Bug15" sheetId="12" r:id="rId12"/>
+    <sheet name="Bug16" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -182,16 +184,49 @@
   </si>
   <si>
     <t>Lỗi: Chữ bị nhảy hàng.</t>
+  </si>
+  <si>
+    <t>Khi bấm icon Instagram thì lại ra trang Facebook. Vị trí thanh thông tin cuối trang, mục đăng ký theo dõi thông tin mới từ chúng tôi.</t>
+  </si>
+  <si>
+    <t>Khi bấm icon Twitter thì lại ra trang Facebook. Vị trí thanh thông tin cuối trang, mục đăng ký theo dõi thông tin mới từ chúng tôi.</t>
+  </si>
+  <si>
+    <t>Máy test: Oppo A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sau khi coi xong vid Bài 3, thì sang trang trả lời câu hỏi, nhưng câu hỏi lại bị đẩy xuống dưới</t>
+  </si>
+  <si>
+    <t>Lỗi định dạng. Vị trí, trang bài làm sau khi coi xong clip. Chi tiết xem bug 15</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Tài khoản của bạn</t>
+  </si>
+  <si>
+    <t>Khóa học của tôi</t>
+  </si>
+  <si>
+    <t>Nút menu và cái chuông dính vào nhau. Vị trí: Trong tài khoản của tôi, chi tiết xem Bug16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,11 +280,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +316,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,6 +567,114 @@
         <a:xfrm>
           <a:off x="209550" y="101600"/>
           <a:ext cx="3041650" cy="2330766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>159369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE26B15-027D-4D70-B215-7D1BA9197CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-2" t="10547" r="347" b="5391"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="577850" y="228600"/>
+          <a:ext cx="2222500" cy="4166219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1921662A-1617-431D-B958-061881B2624D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-1" t="10468" r="-173" b="76954"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="749300"/>
+          <a:ext cx="3663950" cy="1022350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,24 +1509,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D45463-BCC0-4F61-B6E1-F80BA266A257}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H14:H15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="13.08984375" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.7265625" customWidth="1"/>
     <col min="6" max="6" width="13.453125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,8 +1551,11 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1416,7 +1577,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1438,7 +1599,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1460,7 +1621,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1482,7 +1643,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1504,7 +1665,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1526,7 +1687,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1548,7 +1709,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1570,7 +1731,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1592,7 +1753,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1603,7 +1764,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>39</v>
@@ -1614,7 +1775,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1625,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>44</v>
@@ -1636,7 +1797,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1658,15 +1819,124 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
+    <row r="14" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{4DDCF3D6-3C1B-478D-AE09-8826A986F355}">
       <formula1>"Đã sửa, Không sửa"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{F07CB6C4-9970-4617-B45C-1AC1E352622E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F18" xr:uid="{F07CB6C4-9970-4617-B45C-1AC1E352622E}">
       <formula1>"Vy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13" xr:uid="{CBB0A22B-2A4A-42E7-B96A-7C2AA4C3B7F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18" xr:uid="{CBB0A22B-2A4A-42E7-B96A-7C2AA4C3B7F2}">
       <formula1>"Tablet, Mobile"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1741,6 +2011,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4EF24-BC70-43FF-AB33-AB98C46C6CD2}">
+  <dimension ref="F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C28214-0A35-4CBC-AC38-C01476ADE455}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A197A3D-A326-4A11-B578-26169912A562}">
   <dimension ref="A1"/>

--- a/Bug/T6_Mobile.xlsx
+++ b/Bug/T6_Mobile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\Talent\Docs\Bug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Docs\Bug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2421A01-44B9-43B6-8C4B-60AEEF197AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F90D2A7-4515-455F-B6E3-5C10DC63CBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A52E3FAD-4BAF-45D0-98E7-77054665A105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A52E3FAD-4BAF-45D0-98E7-77054665A105}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Nút menu và cái chuông dính vào nhau. Vị trí: Trong tài khoản của tôi, chi tiết xem Bug16</t>
+  </si>
+  <si>
+    <t>Tongnd</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -1512,21 +1518,21 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G13" sqref="G13:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1577,7 +1583,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1599,7 +1605,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1621,7 +1627,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1643,7 +1649,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1665,7 +1671,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1706,10 +1712,14 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1728,10 +1738,14 @@
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1750,10 +1764,14 @@
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1772,10 +1790,14 @@
       <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1797,7 +1819,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1816,10 +1838,14 @@
       <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1838,10 +1864,14 @@
       <c r="F14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1860,10 +1890,14 @@
       <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1885,7 +1919,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1907,7 +1941,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1952,24 +1986,24 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>43</v>
       </c>
@@ -1988,19 +2022,19 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>48</v>
       </c>
@@ -2019,9 +2053,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>52</v>
       </c>
@@ -2040,7 +2074,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2055,7 +2089,7 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2070,24 +2104,24 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -2106,24 +2140,24 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>22</v>
       </c>
@@ -2142,19 +2176,19 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>25</v>
       </c>
@@ -2173,14 +2207,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -2199,14 +2233,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>32</v>
       </c>
@@ -2225,19 +2259,19 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>36</v>
       </c>
@@ -2256,19 +2290,19 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>38</v>
       </c>
